--- a/w1867882_Harini_Hapuarachchi_Land_Evaluation/Dataset/Land Eveluation DataCoconut Sample.xlsx
+++ b/w1867882_Harini_Hapuarachchi_Land_Evaluation/Dataset/Land Eveluation DataCoconut Sample.xlsx
@@ -109,7 +109,7 @@
     <t>35</t>
   </si>
   <si>
-    <t>345</t>
+    <t>344</t>
   </si>
   <si>
     <t>3300</t>
